--- a/Orçamento_servidores.xlsx
+++ b/Orçamento_servidores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Documents\GitHub\PrivateCloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F463A41-E537-46D0-BAB6-B5898C0D8AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3ECFE2-4FC1-4D59-A938-FCDA45CD034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F200FF37-84CF-477F-9E03-3E9358F58F03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F200FF37-84CF-477F-9E03-3E9358F58F03}"/>
   </bookViews>
   <sheets>
     <sheet name="Server Storage" sheetId="1" r:id="rId1"/>
@@ -330,8 +330,41 @@
     <t>€23.368,90 (excl. IVA)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">NVIDIA® Quadro RTX 6000 ADA 48GB </t>
+    <t>________</t>
+  </si>
+  <si>
+    <t>https://www.pcdiga.com/perifericos/distribuicao-de-energia/ups-online/ups-eaton-9e-3000i-3000va-2400w-usb-serial-iec-9e3000i-786689166588</t>
+  </si>
+  <si>
+    <t>https://www.pccomponentes.pt/mikrotik-crs312-4c-8xg-rm-switch-8-portas-gigabit-1-fast-ethernet-4-sfp?utm_source=176013&amp;utm_medium=afi&amp;utm_campaign=pt.redbrain.shop&amp;sv1=affiliate&amp;sv_campaign_id=176013&amp;awc=20983_1744889180_48f3de471d5b00b3a0af19589087b6e4&amp;utm_term=deeplink&amp;utm_content=pt.redbrain.shop</t>
+  </si>
+  <si>
+    <t>https://www.pccomponentes.pt/cyberpower-or1500erm1u-ups-rack-1500va-900w</t>
+  </si>
+  <si>
+    <t>Configuração feita no site da Supermicro : https://store.supermicro.com/nl_en/?utm_source=corp_header&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NVIDIA® Quadro RTX 6000 ADA 48GB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -342,21 +375,6 @@
       </rPr>
       <t>GDDR6 PCIe 4.0 Graphics Card (300W)</t>
     </r>
-  </si>
-  <si>
-    <t>________</t>
-  </si>
-  <si>
-    <t>https://www.pcdiga.com/perifericos/distribuicao-de-energia/ups-online/ups-eaton-9e-3000i-3000va-2400w-usb-serial-iec-9e3000i-786689166588</t>
-  </si>
-  <si>
-    <t>https://www.pccomponentes.pt/mikrotik-crs312-4c-8xg-rm-switch-8-portas-gigabit-1-fast-ethernet-4-sfp?utm_source=176013&amp;utm_medium=afi&amp;utm_campaign=pt.redbrain.shop&amp;sv1=affiliate&amp;sv_campaign_id=176013&amp;awc=20983_1744889180_48f3de471d5b00b3a0af19589087b6e4&amp;utm_term=deeplink&amp;utm_content=pt.redbrain.shop</t>
-  </si>
-  <si>
-    <t>https://www.pccomponentes.pt/cyberpower-or1500erm1u-ups-rack-1500va-900w</t>
-  </si>
-  <si>
-    <t>Configuração feita no site da Supermicro : https://store.supermicro.com/nl_en/?utm_source=corp_header&amp;utm_medium=referral</t>
   </si>
 </sst>
 </file>
@@ -367,7 +385,7 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +433,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -924,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1020,8 +1045,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1F4CA-D183-402D-9A88-BE3A8DFC2EB5}">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
@@ -1335,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6139085-DDF8-46AC-90D8-69FFA484561D}">
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1377,7 +1407,7 @@
         <v>23462.400000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1395,7 +1425,7 @@
         <v>23368.9</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1413,7 +1443,7 @@
         <v>2188</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1431,7 +1461,7 @@
         <v>1358</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1449,7 +1479,7 @@
         <v>467.99</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
